--- a/converted_files/834/X220-enroll-employee-in-managed-care-product.xlsx
+++ b/converted_files/834/X220-enroll-employee-in-managed-care-product.xlsx
@@ -2170,7 +2170,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46b3f</t>
+          <t>690141eb7c0fb18b049a0219</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46b40</t>
+          <t>690141eb7c0fb18b049a021a</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -3366,7 +3366,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46b41</t>
+          <t>690141eb7c0fb18b049a021b</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46b42</t>
+          <t>690141eb7c0fb18b049a021c</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
